--- a/midterm-project/SunitaKoppar_phys243_DataAnalysis.xlsx
+++ b/midterm-project/SunitaKoppar_phys243_DataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunitakoppar/PycharmProjects/appliedml/midterm-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999DF181-3C5B-C74E-BE82-844C60A2823C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10530A8-84C8-FB40-966E-AAF42CA297F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1200" windowWidth="30780" windowHeight="17440" xr2:uid="{39D6743F-FCCF-4A45-938A-CB30CBF11791}"/>
   </bookViews>
@@ -18,9 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataAnalysis!$A$1:$V$134</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">DataAnalysis!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">DataAnalysis!$B$2:$B$134</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">DataAnalysis!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">DataAnalysis!$D$2:$D$134</definedName>
     <definedName name="acute_inflammation" localSheetId="0">DataAnalysis!$A$2:$O$121</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{B9A04AEC-6065-924E-AD36-6A1E53777B6E}" name="acute_inflammation" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/sunitakoppar/PycharmProjects/appliedml/midterm-project/data/acute_inflammation.tsv">
+    <textPr sourceFile="/Users/sunitakoppar/PycharmProjects/appliedml/midterm-project/data/acute_inflammation.tsv">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -3260,45 +3264,6 @@
                 <c:pt idx="119">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5469,45 +5434,6 @@
                 <c:pt idx="119">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12128,7 +12054,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> seems to have corelation with d2</a:t>
+              <a:t> seems to have COVARIANCE with d2</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -12975,45 +12901,6 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24202,14 +24089,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Nausea Seems corelated</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> with d2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -25041,45 +24928,6 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25261,14 +25109,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent4">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:srgbClr val="FF0000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -27245,45 +27093,6 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29457,45 +29266,6 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -47716,10 +47486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C9851-AEA8-A341-BA5B-98B87BAC46F5}">
-  <dimension ref="A1:V134"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="P122" sqref="P122:P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54751,53 +54521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P122" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P123" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P124" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P125" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P126" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P127" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P128" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P129" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+    <row r="129" spans="18:22" x14ac:dyDescent="0.2">
       <c r="R129" t="s">
         <v>3</v>
       </c>
@@ -54814,11 +54538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P130" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+    <row r="130" spans="18:22" x14ac:dyDescent="0.2">
       <c r="R130" t="s">
         <v>1</v>
       </c>
@@ -54835,11 +54555,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="131" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P131" t="b">
-        <f t="shared" ref="P131:P134" si="16">IF(O131="yes",1,IF(O131="no",0))</f>
-        <v>0</v>
-      </c>
+    <row r="131" spans="18:22" x14ac:dyDescent="0.2">
       <c r="R131" t="s">
         <v>1</v>
       </c>
@@ -54856,11 +54572,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="132" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P132" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+    <row r="132" spans="18:22" x14ac:dyDescent="0.2">
       <c r="R132" t="s">
         <v>0</v>
       </c>
@@ -54872,18 +54584,6 @@
       </c>
       <c r="V132">
         <v>38</v>
-      </c>
-    </row>
-    <row r="133" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P133" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="16:22" x14ac:dyDescent="0.2">
-      <c r="P134" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
